--- a/biology/Botanique/Retrophyllum_minor/Retrophyllum_minor.xlsx
+++ b/biology/Botanique/Retrophyllum_minor/Retrophyllum_minor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Retrophyllum minor, appelé "Bois-bouchon", est une espèce de conifères du genre Retrophyllum endémique de Nouvelle-Calédonie.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Cette espèce se présente comme un arbrisseau ou un arbuste au tronc très évasé vers le bas, effilé vers le haut[2].
-Bois
-Le bois est formé d'une structure très aérée, formée par de minces lamelles séparées de couches d'air (dans le bois sec) ou d'eau (dans le bois vert).
-Il est très peu dense, ce qui explique le nom vernaculaire de l'espèce[3].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se présente comme un arbrisseau ou un arbuste au tronc très évasé vers le bas, effilé vers le haut.
 </t>
         </is>
       </c>
@@ -543,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce ne se trouve qu'en Nouvelle-Calédonie, dans le Sud de la Grande Terre, dans la Plaine des Lacs et ses environs immédiats[2].
+          <t>Bois</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est formé d'une structure très aérée, formée par de minces lamelles séparées de couches d'air (dans le bois sec) ou d'eau (dans le bois vert).
+Il est très peu dense, ce qui explique le nom vernaculaire de l'espèce.
 </t>
         </is>
       </c>
@@ -574,12 +595,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce ne se trouve qu'en Nouvelle-Calédonie, dans le Sud de la Grande Terre, dans la Plaine des Lacs et ses environs immédiats.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Retrophyllum_minor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Retrophyllum_minor</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Statut UICN</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre est considéré en danger par l'UICN. Son habitat est notamment menacé par les feux de brousse[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre est considéré en danger par l'UICN. Son habitat est notamment menacé par les feux de brousse.
 </t>
         </is>
       </c>
